--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H2">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I2">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J2">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14773152424498</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N2">
-        <v>7.14773152424498</v>
+        <v>21.568245</v>
       </c>
       <c r="O2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q2">
-        <v>5.709563126929729</v>
+        <v>5.995571899231666</v>
       </c>
       <c r="R2">
-        <v>5.709563126929729</v>
+        <v>53.96014709308499</v>
       </c>
       <c r="S2">
-        <v>0.1046257995650961</v>
+        <v>0.1015543981825966</v>
       </c>
       <c r="T2">
-        <v>0.1046257995650961</v>
+        <v>0.1015543981825966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H3">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I3">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J3">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.8321182519589</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N3">
-        <v>12.8321182519589</v>
+        <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q3">
-        <v>10.25021560522667</v>
+        <v>10.76264566801344</v>
       </c>
       <c r="R3">
-        <v>10.25021560522667</v>
+        <v>96.863811012121</v>
       </c>
       <c r="S3">
-        <v>0.1878317096369788</v>
+        <v>0.1823002078930457</v>
       </c>
       <c r="T3">
-        <v>0.1878317096369788</v>
+        <v>0.1823002078930457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H4">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I4">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J4">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.846400789955351</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N4">
-        <v>0.846400789955351</v>
+        <v>0.063718</v>
       </c>
       <c r="O4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q4">
-        <v>0.6760996442775228</v>
+        <v>0.01771242167711111</v>
       </c>
       <c r="R4">
-        <v>0.6760996442775228</v>
+        <v>0.159411795094</v>
       </c>
       <c r="S4">
-        <v>0.01238929569489695</v>
+        <v>0.0003000171383160145</v>
       </c>
       <c r="T4">
-        <v>0.01238929569489695</v>
+        <v>0.0003000171383160145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.52291103668574</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H5">
-        <v>1.52291103668574</v>
+        <v>2.501833</v>
       </c>
       <c r="I5">
-        <v>0.5811945513676886</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J5">
-        <v>0.5811945513676886</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.14773152424498</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N5">
-        <v>7.14773152424498</v>
+        <v>4.470329</v>
       </c>
       <c r="O5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q5">
-        <v>10.88535922553927</v>
+        <v>1.242668512561889</v>
       </c>
       <c r="R5">
-        <v>10.88535922553927</v>
+        <v>11.184016613057</v>
       </c>
       <c r="S5">
-        <v>0.1994705001427613</v>
+        <v>0.02104860971642378</v>
       </c>
       <c r="T5">
-        <v>0.1994705001427613</v>
+        <v>0.02104860971642379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H6">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I6">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J6">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.8321182519589</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N6">
-        <v>12.8321182519589</v>
+        <v>21.568245</v>
       </c>
       <c r="O6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q6">
-        <v>19.54217450996473</v>
+        <v>11.05400115674166</v>
       </c>
       <c r="R6">
-        <v>19.54217450996473</v>
+        <v>99.48601041067499</v>
       </c>
       <c r="S6">
-        <v>0.3581036916295863</v>
+        <v>0.1872352552600504</v>
       </c>
       <c r="T6">
-        <v>0.3581036916295863</v>
+        <v>0.1872352552600504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H7">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I7">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J7">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.846400789955351</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N7">
-        <v>0.846400789955351</v>
+        <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q7">
-        <v>1.288993104482533</v>
+        <v>19.84302743147278</v>
       </c>
       <c r="R7">
-        <v>1.288993104482533</v>
+        <v>178.587246883255</v>
       </c>
       <c r="S7">
-        <v>0.02362035959534111</v>
+        <v>0.3361058365728571</v>
       </c>
       <c r="T7">
-        <v>0.02362035959534111</v>
+        <v>0.3361058365728572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.298607197644722</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H8">
-        <v>0.298607197644722</v>
+        <v>4.612615</v>
       </c>
       <c r="I8">
-        <v>0.1139586437353396</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J8">
-        <v>0.1139586437353396</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.14773152424498</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N8">
-        <v>7.14773152424498</v>
+        <v>0.063718</v>
       </c>
       <c r="O8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q8">
-        <v>2.134364079971631</v>
+        <v>0.03265628917444444</v>
       </c>
       <c r="R8">
-        <v>2.134364079971631</v>
+        <v>0.29390660257</v>
       </c>
       <c r="S8">
-        <v>0.03911149477913478</v>
+        <v>0.00055313985883691</v>
       </c>
       <c r="T8">
-        <v>0.03911149477913478</v>
+        <v>0.0005531398588369101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.298607197644722</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H9">
-        <v>0.298607197644722</v>
+        <v>4.612615</v>
       </c>
       <c r="I9">
-        <v>0.1139586437353396</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J9">
-        <v>0.1139586437353396</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.8321182519589</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N9">
-        <v>12.8321182519589</v>
+        <v>4.470329</v>
       </c>
       <c r="O9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q9">
-        <v>3.831762871063136</v>
+        <v>2.291100733370555</v>
       </c>
       <c r="R9">
-        <v>3.831762871063136</v>
+        <v>20.619906600335</v>
       </c>
       <c r="S9">
-        <v>0.07021574947441035</v>
+        <v>0.0388071997240112</v>
       </c>
       <c r="T9">
-        <v>0.07021574947441035</v>
+        <v>0.03880719972401121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.119675</v>
+      </c>
+      <c r="I10">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="J10">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N10">
+        <v>21.568245</v>
+      </c>
+      <c r="O10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q10">
+        <v>0.2867977467083333</v>
+      </c>
+      <c r="R10">
+        <v>2.581179720375</v>
+      </c>
+      <c r="S10">
+        <v>0.004857847267384452</v>
+      </c>
+      <c r="T10">
+        <v>0.004857847267384452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.119675</v>
+      </c>
+      <c r="I11">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="J11">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N11">
+        <v>38.717137</v>
+      </c>
+      <c r="O11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q11">
+        <v>0.5148303744972222</v>
+      </c>
+      <c r="R11">
+        <v>4.633473370475</v>
+      </c>
+      <c r="S11">
+        <v>0.008720317215257869</v>
+      </c>
+      <c r="T11">
+        <v>0.008720317215257871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.119675</v>
+      </c>
+      <c r="I12">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="J12">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.063718</v>
+      </c>
+      <c r="O12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q12">
+        <v>0.0008472724055555555</v>
+      </c>
+      <c r="R12">
+        <v>0.00762545165</v>
+      </c>
+      <c r="S12">
+        <v>1.435129803946508E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.435129803946508E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.119675</v>
+      </c>
+      <c r="I13">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="J13">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N13">
+        <v>4.470329</v>
+      </c>
+      <c r="O13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q13">
+        <v>0.05944295811944443</v>
+      </c>
+      <c r="R13">
+        <v>0.534986623075</v>
+      </c>
+      <c r="S13">
+        <v>0.00100685871831294</v>
+      </c>
+      <c r="T13">
+        <v>0.00100685871831294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J14">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N14">
+        <v>21.568245</v>
+      </c>
+      <c r="O14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q14">
+        <v>2.308152099863333</v>
+      </c>
+      <c r="R14">
+        <v>20.77336889877</v>
+      </c>
+      <c r="S14">
+        <v>0.03909601975510563</v>
+      </c>
+      <c r="T14">
+        <v>0.03909601975510563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J15">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N15">
+        <v>38.717137</v>
+      </c>
+      <c r="O15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q15">
+        <v>4.143361737000223</v>
+      </c>
+      <c r="R15">
+        <v>37.290255633002</v>
+      </c>
+      <c r="S15">
+        <v>0.07018122953504706</v>
+      </c>
+      <c r="T15">
+        <v>0.07018122953504706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.298607197644722</v>
-      </c>
-      <c r="H10">
-        <v>0.298607197644722</v>
-      </c>
-      <c r="I10">
-        <v>0.1139586437353396</v>
-      </c>
-      <c r="J10">
-        <v>0.1139586437353396</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.846400789955351</v>
-      </c>
-      <c r="N10">
-        <v>0.846400789955351</v>
-      </c>
-      <c r="O10">
-        <v>0.04064105477203254</v>
-      </c>
-      <c r="P10">
-        <v>0.04064105477203254</v>
-      </c>
-      <c r="Q10">
-        <v>0.2527413679728463</v>
-      </c>
-      <c r="R10">
-        <v>0.2527413679728463</v>
-      </c>
-      <c r="S10">
-        <v>0.00463139948179448</v>
-      </c>
-      <c r="T10">
-        <v>0.00463139948179448</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J16">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.063718</v>
+      </c>
+      <c r="O16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q16">
+        <v>0.006818859647555556</v>
+      </c>
+      <c r="R16">
+        <v>0.061369736828</v>
+      </c>
+      <c r="S16">
+        <v>0.0001154994384919042</v>
+      </c>
+      <c r="T16">
+        <v>0.0001154994384919042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J17">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N17">
+        <v>4.470329</v>
+      </c>
+      <c r="O17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q17">
+        <v>0.4783977216704444</v>
+      </c>
+      <c r="R17">
+        <v>4.305579495033999</v>
+      </c>
+      <c r="S17">
+        <v>0.008103212426222976</v>
+      </c>
+      <c r="T17">
+        <v>0.008103212426222977</v>
       </c>
     </row>
   </sheetData>
